--- a/Rangos/Rangos_caso1_caso2_caso3.xlsx
+++ b/Rangos/Rangos_caso1_caso2_caso3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\59399\Documents\GitHub\DataMining_Accidentes_Transito_Canton_Loja\Rangos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A1CE53-1F6C-44C7-8BF6-F78FD19837CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824F89D4-3513-461A-B4A2-EB7AE4CDD80B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5016" yWindow="1236" windowWidth="16632" windowHeight="10680" xr2:uid="{A7109C86-758E-4AD7-A547-AF3E42894F83}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A7109C86-758E-4AD7-A547-AF3E42894F83}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -277,31 +277,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -309,9 +290,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -323,9 +301,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,25 +310,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E611D502-E0EC-4D59-8B85-5A370557185B}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,1184 +649,1175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="6" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="10" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="10" t="s">
+      <c r="L2" s="11"/>
+      <c r="M2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="10"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="14">
-        <v>1</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="16">
-        <v>1</v>
-      </c>
-      <c r="I3" s="16" t="s">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="4">
         <v>0</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="16">
-        <v>1</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="18">
-        <v>1</v>
-      </c>
-      <c r="O3" s="18" t="s">
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="7">
         <v>0</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="18">
+      <c r="R3" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="4">
         <v>0</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="7">
-        <v>2</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="11">
-        <v>1</v>
-      </c>
-      <c r="O4" s="11" t="s">
+      <c r="L4" s="4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="7">
         <v>0</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="3">
-        <v>3</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="7">
-        <v>3</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="11">
-        <v>1</v>
-      </c>
-      <c r="O5" s="11" t="s">
+      <c r="L5" s="4">
+        <v>3</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="7">
         <v>0</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="4">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="4">
         <v>4</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="11">
-        <v>2</v>
-      </c>
-      <c r="O6" s="11" t="s">
+      <c r="N6" s="7">
+        <v>2</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="7">
         <v>0</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="3">
-        <v>5</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="8" t="s">
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="7">
-        <v>5</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="11">
-        <v>2</v>
-      </c>
-      <c r="O7" s="11" t="s">
+      <c r="L7" s="4">
+        <v>5</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="7">
         <v>0</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>6</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7" t="s">
+      <c r="H8" s="4">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="7">
-        <v>1</v>
-      </c>
-      <c r="K8" s="8" t="s">
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="7">
-        <v>5</v>
-      </c>
-      <c r="M8" s="11" t="s">
+      <c r="L8" s="4">
+        <v>5</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="11">
-        <v>3</v>
-      </c>
-      <c r="O8" s="11" t="s">
+      <c r="N8" s="7">
+        <v>3</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="7">
         <v>0</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>6</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>7</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="7">
-        <v>3</v>
-      </c>
-      <c r="I9" s="7" t="s">
+      <c r="H9" s="4">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="7">
-        <v>1</v>
-      </c>
-      <c r="K9" s="8" t="s">
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="7">
-        <v>5</v>
-      </c>
-      <c r="M9" s="11" t="s">
+      <c r="L9" s="4">
+        <v>5</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="11">
-        <v>3</v>
-      </c>
-      <c r="O9" s="11" t="s">
+      <c r="N9" s="7">
+        <v>3</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="12" t="s">
+      <c r="P9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>7</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>8</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="7" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="7">
-        <v>1</v>
-      </c>
-      <c r="K10" s="8" t="s">
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="7">
-        <v>5</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="11" t="s">
+      <c r="L10" s="4">
+        <v>5</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="12" t="s">
+      <c r="P10" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>8</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>9</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="7" t="s">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="7">
-        <v>2</v>
-      </c>
-      <c r="K11" s="8" t="s">
+      <c r="J11" s="4">
+        <v>2</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="7">
-        <v>5</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="11" t="s">
+      <c r="L11" s="4">
+        <v>5</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P11" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="12" t="s">
+      <c r="P11" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>9</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>10</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="7" t="s">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="7">
-        <v>2</v>
-      </c>
-      <c r="K12" s="8" t="s">
+      <c r="J12" s="4">
+        <v>2</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="7">
-        <v>5</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="11" t="s">
+      <c r="L12" s="4">
+        <v>5</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P12" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="12" t="s">
+      <c r="P12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>10</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>11</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="7" t="s">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="7">
-        <v>2</v>
-      </c>
-      <c r="K13" s="8" t="s">
+      <c r="J13" s="4">
+        <v>2</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="4">
         <v>6</v>
       </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="11" t="s">
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="12" t="s">
+      <c r="P13" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>11</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="7" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="7">
-        <v>2</v>
-      </c>
-      <c r="K14" s="8" t="s">
+      <c r="J14" s="4">
+        <v>2</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="4">
         <v>7</v>
       </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="11" t="s">
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="12" t="s">
+      <c r="P14" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>12</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>13</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="7" t="s">
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="7">
-        <v>3</v>
-      </c>
-      <c r="K15" s="8" t="s">
+      <c r="J15" s="4">
+        <v>3</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="4">
         <v>8</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="11" t="s">
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P15" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="12" t="s">
+      <c r="P15" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>13</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>14</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="7" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="7">
-        <v>3</v>
-      </c>
-      <c r="K16" s="8" t="s">
+      <c r="J16" s="4">
+        <v>3</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="4">
         <v>9</v>
       </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="11" t="s">
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P16" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="12" t="s">
+      <c r="P16" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>14</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>15</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="7" t="s">
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="7">
-        <v>3</v>
-      </c>
-      <c r="K17" s="8" t="s">
+      <c r="J17" s="4">
+        <v>3</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="4">
         <v>9</v>
       </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="11" t="s">
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P17" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="12" t="s">
+      <c r="P17" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>15</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>16</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="7" t="s">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="7">
-        <v>3</v>
-      </c>
-      <c r="K18" s="8" t="s">
+      <c r="J18" s="4">
+        <v>3</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="4">
         <v>10</v>
       </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="11" t="s">
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P18" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="12" t="s">
+      <c r="P18" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>16</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>17</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="7" t="s">
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="4">
         <v>4</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="4">
         <v>10</v>
       </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="11" t="s">
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="12" t="s">
+      <c r="P19" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>17</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>18</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="7" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="4">
         <v>4</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="4">
         <v>10</v>
       </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="11" t="s">
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P20" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="12" t="s">
+      <c r="P20" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R20" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>18</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>19</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="7" t="s">
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="4">
         <v>4</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="4">
         <v>11</v>
       </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="11" t="s">
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P21" s="11">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="12" t="s">
+      <c r="P21" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>19</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>20</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="7" t="s">
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="4">
         <v>4</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="4">
         <v>11</v>
       </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="11" t="s">
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P22" s="11">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="12" t="s">
+      <c r="P22" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R22" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>20</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>21</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="7" t="s">
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="7">
-        <v>5</v>
-      </c>
-      <c r="K23" s="9" t="s">
+      <c r="J23" s="4">
+        <v>5</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="4">
         <v>11</v>
       </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="11" t="s">
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P23" s="11">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="13" t="s">
+      <c r="P23" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>21</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="7" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="7">
-        <v>5</v>
-      </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="11" t="s">
+      <c r="J24" s="4">
+        <v>5</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P24" s="11">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
+      <c r="P24" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <v>22</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="7" t="s">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="7">
-        <v>5</v>
-      </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="11" t="s">
+      <c r="J25" s="4">
+        <v>5</v>
+      </c>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P25" s="11">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
+      <c r="P25" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <v>23</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="7" t="s">
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="7">
-        <v>5</v>
-      </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="11" t="s">
+      <c r="J26" s="4">
+        <v>5</v>
+      </c>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P26" s="11">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="P26" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G1:L1"/>
     <mergeCell ref="M1:R1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
@@ -1866,6 +1825,11 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
